--- a/BackTest/2020-01-26 BackTest AMO.xlsx
+++ b/BackTest/2020-01-26 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3256,7 +3256,7 @@
         <v>23338020.50389999</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>18613334.67989999</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>17854937.8479</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>19206638.0469</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>16799889.3329</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>18261774.44289999</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>17020259.1549</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>18075307.6699</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>19393104.8189</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>18117686.4819</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>18969316.69989999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>17605792.42189999</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>18626937.88789999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>14429761.7878</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>13283188.3383</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>14762024.97229999</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>13791734.0803</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>11633004.4753</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>12983766.61149999</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>14106621.2255</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>12066781.04149999</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>13181373.53949999</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>4090014.465499991</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>4467001.990499991</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>2348429.19649999</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12001,14 +12001,10 @@
         <v>2757290.630499989</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J352" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
@@ -12041,14 +12037,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12077,17 +12067,11 @@
         <v>2918330.115499989</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12116,14 +12100,10 @@
         <v>3990330.155499989</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J355" t="n">
-        <v>0.2522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
@@ -12153,19 +12133,15 @@
         <v>3240409.085499989</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>0.2523</v>
       </c>
       <c r="J356" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.2523</v>
+      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12194,13 +12170,13 @@
         <v>4609060.809499989</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>0.2521</v>
       </c>
       <c r="J357" t="n">
-        <v>0.2522</v>
+        <v>0.2523</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12235,15 +12211,19 @@
         <v>4609060.809499989</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>0.2524</v>
       </c>
       <c r="J358" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K358" t="inlineStr"/>
+        <v>0.2523</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12272,7 +12252,7 @@
         <v>3138699.937499989</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>0.2524</v>
@@ -12280,11 +12260,7 @@
       <c r="J359" t="n">
         <v>0.2524</v>
       </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12313,7 +12289,7 @@
         <v>1736145.164499989</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>0.2523</v>
@@ -12354,15 +12330,19 @@
         <v>2613202.669499989</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>0.2521</v>
       </c>
       <c r="J361" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K361" t="inlineStr"/>
+        <v>0.2524</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12391,19 +12371,15 @@
         <v>3456357.125499989</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>0.2523</v>
       </c>
       <c r="J362" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.2523</v>
+      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12432,13 +12408,11 @@
         <v>1926665.916499989</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12473,13 +12447,13 @@
         <v>725307.4404999889</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>0.2523</v>
       </c>
       <c r="J364" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12518,7 +12492,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12555,9 +12529,11 @@
       <c r="H366" t="n">
         <v>1</v>
       </c>
-      <c r="I366" t="inlineStr"/>
+      <c r="I366" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J366" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12592,11 +12568,13 @@
         <v>553570.1924999888</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="J367" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12635,7 +12613,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12670,13 +12648,11 @@
         <v>1981552.252499989</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12715,7 +12691,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12750,13 +12726,11 @@
         <v>682928.6284999887</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12791,13 +12765,11 @@
         <v>682928.6284999887</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12836,7 +12808,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12873,9 +12845,11 @@
       <c r="H374" t="n">
         <v>1</v>
       </c>
-      <c r="I374" t="inlineStr"/>
+      <c r="I374" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J374" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12910,13 +12884,13 @@
         <v>660444.9905999887</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>0.2525</v>
       </c>
       <c r="J375" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -12955,7 +12929,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -12990,13 +12964,11 @@
         <v>-699730.9704000112</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>0.2527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13035,7 +13007,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13074,7 +13046,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13109,11 +13081,13 @@
         <v>-3593652.120400012</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J380" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13148,13 +13122,13 @@
         <v>-2691167.327400011</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>0.2521</v>
       </c>
       <c r="J381" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13189,13 +13163,13 @@
         <v>-1983625.069400012</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>0.2523</v>
       </c>
       <c r="J382" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13230,13 +13204,13 @@
         <v>-2911537.149400012</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>0.2526</v>
       </c>
       <c r="J383" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13271,13 +13245,13 @@
         <v>-4170003.962400012</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>0.2523</v>
       </c>
       <c r="J384" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13312,13 +13286,13 @@
         <v>-3386179.843400012</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>0.2521</v>
       </c>
       <c r="J385" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13353,13 +13327,13 @@
         <v>-2381985.902400012</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>0.2524</v>
       </c>
       <c r="J386" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13394,13 +13368,13 @@
         <v>-3674355.764400012</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>0.2527</v>
       </c>
       <c r="J387" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13435,13 +13409,13 @@
         <v>-3674355.764400012</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>0.2522</v>
       </c>
       <c r="J388" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13476,11 +13450,13 @@
         <v>-2170091.842400012</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J389" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13515,13 +13491,13 @@
         <v>-3437034.417400012</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>0.2526</v>
       </c>
       <c r="J390" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13556,11 +13532,13 @@
         <v>-4466655.645400012</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="J391" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13595,13 +13573,13 @@
         <v>-5674267.883400012</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>0.2524</v>
       </c>
       <c r="J392" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13638,9 +13616,11 @@
       <c r="H393" t="n">
         <v>1</v>
       </c>
-      <c r="I393" t="inlineStr"/>
+      <c r="I393" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J393" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13675,11 +13655,11 @@
         <v>-5920064.992400011</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13716,9 +13696,11 @@
       <c r="H395" t="n">
         <v>1</v>
       </c>
-      <c r="I395" t="inlineStr"/>
+      <c r="I395" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="J395" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13757,7 +13739,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13794,9 +13776,11 @@
       <c r="H397" t="n">
         <v>1</v>
       </c>
-      <c r="I397" t="inlineStr"/>
+      <c r="I397" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="J397" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13833,9 +13817,11 @@
       <c r="H398" t="n">
         <v>1</v>
       </c>
-      <c r="I398" t="inlineStr"/>
+      <c r="I398" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J398" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13872,9 +13858,11 @@
       <c r="H399" t="n">
         <v>1</v>
       </c>
-      <c r="I399" t="inlineStr"/>
+      <c r="I399" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J399" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13911,9 +13899,11 @@
       <c r="H400" t="n">
         <v>1</v>
       </c>
-      <c r="I400" t="inlineStr"/>
+      <c r="I400" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J400" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13950,9 +13940,11 @@
       <c r="H401" t="n">
         <v>1</v>
       </c>
-      <c r="I401" t="inlineStr"/>
+      <c r="I401" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J401" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13989,9 +13981,11 @@
       <c r="H402" t="n">
         <v>1</v>
       </c>
-      <c r="I402" t="inlineStr"/>
+      <c r="I402" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="J402" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14026,13 +14020,13 @@
         <v>-6568276.913400011</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>0.2522</v>
       </c>
       <c r="J403" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14067,13 +14061,13 @@
         <v>-8021686.260400011</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>0.2527</v>
       </c>
       <c r="J404" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14108,11 +14102,13 @@
         <v>-7229386.378400011</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="J405" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14147,11 +14143,13 @@
         <v>-8030162.022400011</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="J406" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14186,11 +14184,13 @@
         <v>-7288716.715400011</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J407" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14225,13 +14225,13 @@
         <v>-7288716.715400011</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>0.2522</v>
       </c>
       <c r="J408" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14266,13 +14266,13 @@
         <v>-6420134.972400011</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>0.2522</v>
       </c>
       <c r="J409" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14307,13 +14307,13 @@
         <v>-7805738.220400011</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>0.2528</v>
       </c>
       <c r="J410" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14348,13 +14348,13 @@
         <v>-8894689.785400011</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>0.2527</v>
       </c>
       <c r="J411" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14389,13 +14389,13 @@
         <v>-7704029.071400011</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>0.2521</v>
       </c>
       <c r="J412" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14430,11 +14430,13 @@
         <v>-6691359.367400011</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="J413" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14471,9 +14473,11 @@
       <c r="H414" t="n">
         <v>1</v>
       </c>
-      <c r="I414" t="inlineStr"/>
+      <c r="I414" t="n">
+        <v>0.2527</v>
+      </c>
       <c r="J414" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14508,11 +14512,13 @@
         <v>-8170196.001400011</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.2527</v>
+      </c>
       <c r="J415" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14547,11 +14553,13 @@
         <v>-8170196.001400011</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.2523</v>
+      </c>
       <c r="J416" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14588,9 +14596,11 @@
       <c r="H417" t="n">
         <v>1</v>
       </c>
-      <c r="I417" t="inlineStr"/>
+      <c r="I417" t="n">
+        <v>0.2523</v>
+      </c>
       <c r="J417" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14627,9 +14637,11 @@
       <c r="H418" t="n">
         <v>1</v>
       </c>
-      <c r="I418" t="inlineStr"/>
+      <c r="I418" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="J418" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14666,9 +14678,11 @@
       <c r="H419" t="n">
         <v>1</v>
       </c>
-      <c r="I419" t="inlineStr"/>
+      <c r="I419" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J419" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14705,9 +14719,11 @@
       <c r="H420" t="n">
         <v>1</v>
       </c>
-      <c r="I420" t="inlineStr"/>
+      <c r="I420" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="J420" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14744,9 +14760,11 @@
       <c r="H421" t="n">
         <v>1</v>
       </c>
-      <c r="I421" t="inlineStr"/>
+      <c r="I421" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J421" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14783,9 +14801,11 @@
       <c r="H422" t="n">
         <v>1</v>
       </c>
-      <c r="I422" t="inlineStr"/>
+      <c r="I422" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="J422" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14822,9 +14842,11 @@
       <c r="H423" t="n">
         <v>1</v>
       </c>
-      <c r="I423" t="inlineStr"/>
+      <c r="I423" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J423" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14859,11 +14881,13 @@
         <v>-6077050.496400011</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="J424" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14898,11 +14922,13 @@
         <v>-4801632.15940001</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="J425" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14937,11 +14963,13 @@
         <v>-5653262.377400011</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.2527</v>
+      </c>
       <c r="J426" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14976,13 +15004,13 @@
         <v>-5651040.377400011</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>0.2525</v>
       </c>
       <c r="J427" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15017,13 +15045,11 @@
         <v>-6468767.546400011</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>0.2529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15058,13 +15084,11 @@
         <v>-7430582.67540001</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15099,13 +15123,13 @@
         <v>-7428360.67540001</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>0.2523</v>
       </c>
       <c r="J430" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15144,7 +15168,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15183,7 +15207,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15222,7 +15246,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15257,11 +15281,13 @@
         <v>-10881682.14240001</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.2527</v>
+      </c>
       <c r="J434" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15296,11 +15322,13 @@
         <v>-11902827.60840001</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="J435" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15335,11 +15363,13 @@
         <v>-13246052.04440001</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="J436" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15374,11 +15404,13 @@
         <v>-13246052.04440001</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J437" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15415,9 +15447,11 @@
       <c r="H438" t="n">
         <v>1</v>
       </c>
-      <c r="I438" t="inlineStr"/>
+      <c r="I438" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J438" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15454,9 +15488,11 @@
       <c r="H439" t="n">
         <v>1</v>
       </c>
-      <c r="I439" t="inlineStr"/>
+      <c r="I439" t="n">
+        <v>0.2523</v>
+      </c>
       <c r="J439" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15493,9 +15529,11 @@
       <c r="H440" t="n">
         <v>1</v>
       </c>
-      <c r="I440" t="inlineStr"/>
+      <c r="I440" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J440" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15532,9 +15570,11 @@
       <c r="H441" t="n">
         <v>1</v>
       </c>
-      <c r="I441" t="inlineStr"/>
+      <c r="I441" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="J441" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15571,9 +15611,11 @@
       <c r="H442" t="n">
         <v>1</v>
       </c>
-      <c r="I442" t="inlineStr"/>
+      <c r="I442" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J442" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15610,9 +15652,11 @@
       <c r="H443" t="n">
         <v>1</v>
       </c>
-      <c r="I443" t="inlineStr"/>
+      <c r="I443" t="n">
+        <v>0.2523</v>
+      </c>
       <c r="J443" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15649,9 +15693,11 @@
       <c r="H444" t="n">
         <v>1</v>
       </c>
-      <c r="I444" t="inlineStr"/>
+      <c r="I444" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J444" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15686,11 +15732,13 @@
         <v>-14924720.37020001</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="J445" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15725,11 +15773,13 @@
         <v>-14157847.77520001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.2523</v>
+      </c>
       <c r="J446" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15764,11 +15814,13 @@
         <v>-13433353.99220001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="J447" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15803,11 +15855,13 @@
         <v>-14556208.60620001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="J448" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15842,11 +15896,13 @@
         <v>-13179081.12020001</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J449" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15881,11 +15937,13 @@
         <v>-14293459.97220001</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="J450" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15920,11 +15978,13 @@
         <v>-12797671.81320001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0.2523</v>
+      </c>
       <c r="J451" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15959,11 +16019,13 @@
         <v>-13751011.18020001</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="J452" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15998,13 +16060,13 @@
         <v>-12331504.88220001</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>0.2525</v>
       </c>
       <c r="J453" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16039,11 +16101,13 @@
         <v>-13657777.79420001</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="J454" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16078,13 +16142,13 @@
         <v>-12662059.61520001</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>0.2526</v>
       </c>
       <c r="J455" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16119,11 +16183,13 @@
         <v>-13827293.04120001</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.2527</v>
+      </c>
       <c r="J456" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16158,11 +16224,13 @@
         <v>-14602641.39820001</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="J457" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16197,11 +16265,13 @@
         <v>-14602641.39820001</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="J458" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16236,13 +16306,13 @@
         <v>-13530641.35820001</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>0.2524</v>
       </c>
       <c r="J459" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16277,11 +16347,13 @@
         <v>-14280562.42820001</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.2527</v>
+      </c>
       <c r="J460" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16316,13 +16388,13 @@
         <v>-12911910.70420001</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>0.2526</v>
       </c>
       <c r="J461" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16357,13 +16429,13 @@
         <v>-11967047.09920001</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462" t="n">
         <v>0.2527</v>
       </c>
       <c r="J462" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16398,13 +16470,13 @@
         <v>-11967047.09920001</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>0.2528</v>
       </c>
       <c r="J463" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16439,13 +16511,13 @@
         <v>-13369601.87220001</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>0.2528</v>
       </c>
       <c r="J464" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16480,13 +16552,13 @@
         <v>-13367379.87220001</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>0.2524</v>
       </c>
       <c r="J465" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16521,13 +16593,13 @@
         <v>-14244437.37720001</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>0.2528</v>
       </c>
       <c r="J466" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16562,13 +16634,13 @@
         <v>-14244437.37720001</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>0.2526</v>
       </c>
       <c r="J467" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16603,13 +16675,13 @@
         <v>-15774128.58620002</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>0.2526</v>
       </c>
       <c r="J468" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16644,13 +16716,13 @@
         <v>-14574992.11020002</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>0.2524</v>
       </c>
       <c r="J469" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16685,13 +16757,13 @@
         <v>-15969071.12120002</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>0.2528</v>
       </c>
       <c r="J470" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16726,13 +16798,13 @@
         <v>-15159819.71520002</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>0.2525</v>
       </c>
       <c r="J471" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16767,13 +16839,13 @@
         <v>-16138586.36920002</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>0.2526</v>
       </c>
       <c r="J472" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16808,13 +16880,13 @@
         <v>-16138586.36920002</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>0.2524</v>
       </c>
       <c r="J473" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16849,13 +16921,13 @@
         <v>-16138586.36920002</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>0.2524</v>
       </c>
       <c r="J474" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16890,13 +16962,13 @@
         <v>-14837740.74520002</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>0.2524</v>
       </c>
       <c r="J475" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16931,11 +17003,13 @@
         <v>-13621652.74420002</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="J476" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16970,11 +17044,13 @@
         <v>-12702216.42720002</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0.2527</v>
+      </c>
       <c r="J477" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17009,11 +17085,13 @@
         <v>-13596225.45720001</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="J478" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17048,13 +17126,13 @@
         <v>-12236049.49620002</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>0.2526</v>
       </c>
       <c r="J479" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17089,11 +17167,13 @@
         <v>-12236049.49620002</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="J480" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17130,9 +17210,11 @@
       <c r="H481" t="n">
         <v>1</v>
       </c>
-      <c r="I481" t="inlineStr"/>
+      <c r="I481" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="J481" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17167,11 +17249,13 @@
         <v>-12952067.51620002</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="J482" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17206,13 +17290,13 @@
         <v>-14032543.31920001</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>0.2525</v>
       </c>
       <c r="J483" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17247,13 +17331,13 @@
         <v>-13130058.52620002</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>0.2524</v>
       </c>
       <c r="J484" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17288,13 +17372,13 @@
         <v>31600720.51129999</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>0.2527</v>
       </c>
       <c r="J485" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17333,7 +17417,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17372,7 +17456,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17411,7 +17495,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17450,7 +17534,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17489,7 +17573,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17524,13 +17608,11 @@
         <v>27041495.95429999</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
-      </c>
-      <c r="I491" t="n">
-        <v>0.2542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17569,7 +17651,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17608,7 +17690,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17647,7 +17729,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17686,7 +17768,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17725,7 +17807,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17764,7 +17846,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17803,7 +17885,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17842,7 +17924,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17881,7 +17963,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17920,7 +18002,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17959,7 +18041,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17994,349 +18076,409 @@
         <v>28230324.68829998</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>0.2521</v>
+        <v>0.2523</v>
       </c>
       <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L503" t="n">
+        <v>1</v>
+      </c>
+      <c r="M503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="F504" t="n">
+        <v>1411030.535</v>
+      </c>
+      <c r="G504" t="n">
+        <v>26819294.15329998</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L504" t="n">
+        <v>1</v>
+      </c>
+      <c r="M504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="F505" t="n">
+        <v>1233039.525</v>
+      </c>
+      <c r="G505" t="n">
+        <v>25586254.62829998</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L505" t="n">
+        <v>1</v>
+      </c>
+      <c r="M505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="F506" t="n">
+        <v>1521215.446</v>
+      </c>
+      <c r="G506" t="n">
+        <v>25586254.62829998</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L506" t="n">
+        <v>1</v>
+      </c>
+      <c r="M506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="F507" t="n">
+        <v>11609.12087912088</v>
+      </c>
+      <c r="G507" t="n">
+        <v>25597863.7491791</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L507" t="n">
+        <v>1</v>
+      </c>
+      <c r="M507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="F508" t="n">
+        <v>834678.694</v>
+      </c>
+      <c r="G508" t="n">
+        <v>24763185.0551791</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L508" t="n">
+        <v>1</v>
+      </c>
+      <c r="M508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0.2547</v>
+      </c>
+      <c r="F509" t="n">
+        <v>732969.545</v>
+      </c>
+      <c r="G509" t="n">
+        <v>25496154.60017911</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L509" t="n">
+        <v>1</v>
+      </c>
+      <c r="M509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="F510" t="n">
+        <v>1453409.347</v>
+      </c>
+      <c r="G510" t="n">
+        <v>24042745.25317911</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L510" t="n">
+        <v>1</v>
+      </c>
+      <c r="M510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="F511" t="n">
+        <v>792299.882</v>
+      </c>
+      <c r="G511" t="n">
+        <v>23250445.37117911</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L511" t="n">
+        <v>1</v>
+      </c>
+      <c r="M511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="E512" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="F512" t="n">
+        <v>800775.644</v>
+      </c>
+      <c r="G512" t="n">
+        <v>24051221.01517911</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L512" t="n">
+        <v>1</v>
+      </c>
+      <c r="M512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="F513" t="n">
+        <v>741445.307</v>
+      </c>
+      <c r="G513" t="n">
+        <v>24051221.01517911</v>
+      </c>
+      <c r="H513" t="n">
+        <v>2</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K513" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L503" t="n">
-        <v>1.004916699722332</v>
-      </c>
-      <c r="M503" t="inlineStr"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="C504" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="D504" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="E504" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="F504" t="n">
-        <v>1411030.535</v>
-      </c>
-      <c r="G504" t="n">
-        <v>26819294.15329998</v>
-      </c>
-      <c r="H504" t="n">
-        <v>3</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="n">
-        <v>1</v>
-      </c>
-      <c r="M504" t="inlineStr"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="C505" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="D505" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="E505" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="F505" t="n">
-        <v>1233039.525</v>
-      </c>
-      <c r="G505" t="n">
-        <v>25586254.62829998</v>
-      </c>
-      <c r="H505" t="n">
-        <v>3</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="n">
-        <v>1</v>
-      </c>
-      <c r="M505" t="inlineStr"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="C506" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="D506" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="E506" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="F506" t="n">
-        <v>1521215.446</v>
-      </c>
-      <c r="G506" t="n">
-        <v>25586254.62829998</v>
-      </c>
-      <c r="H506" t="n">
-        <v>3</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="n">
-        <v>1</v>
-      </c>
-      <c r="M506" t="inlineStr"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="C507" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="D507" t="n">
-        <v>0.2548</v>
-      </c>
-      <c r="E507" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="F507" t="n">
-        <v>11609.12087912088</v>
-      </c>
-      <c r="G507" t="n">
-        <v>25597863.7491791</v>
-      </c>
-      <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="n">
-        <v>1</v>
-      </c>
-      <c r="M507" t="inlineStr"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="C508" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="D508" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="E508" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="F508" t="n">
-        <v>834678.694</v>
-      </c>
-      <c r="G508" t="n">
-        <v>24763185.0551791</v>
-      </c>
-      <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="n">
-        <v>1</v>
-      </c>
-      <c r="M508" t="inlineStr"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="C509" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="D509" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="E509" t="n">
-        <v>0.2547</v>
-      </c>
-      <c r="F509" t="n">
-        <v>732969.545</v>
-      </c>
-      <c r="G509" t="n">
-        <v>25496154.60017911</v>
-      </c>
-      <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="n">
-        <v>1</v>
-      </c>
-      <c r="M509" t="inlineStr"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="C510" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="D510" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="E510" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="F510" t="n">
-        <v>1453409.347</v>
-      </c>
-      <c r="G510" t="n">
-        <v>24042745.25317911</v>
-      </c>
-      <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="n">
-        <v>1</v>
-      </c>
-      <c r="M510" t="inlineStr"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="C511" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="D511" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="E511" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="F511" t="n">
-        <v>792299.882</v>
-      </c>
-      <c r="G511" t="n">
-        <v>23250445.37117911</v>
-      </c>
-      <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="n">
-        <v>1</v>
-      </c>
-      <c r="M511" t="inlineStr"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="C512" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="D512" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="E512" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="F512" t="n">
-        <v>800775.644</v>
-      </c>
-      <c r="G512" t="n">
-        <v>24051221.01517911</v>
-      </c>
-      <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="n">
-        <v>1</v>
-      </c>
-      <c r="M512" t="inlineStr"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="C513" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="D513" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="E513" t="n">
-        <v>0.2545</v>
-      </c>
-      <c r="F513" t="n">
-        <v>741445.307</v>
-      </c>
-      <c r="G513" t="n">
-        <v>24051221.01517911</v>
-      </c>
-      <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
-        <v>1</v>
+        <v>1.003719778042014</v>
       </c>
       <c r="M513" t="inlineStr"/>
     </row>
@@ -18363,7 +18505,7 @@
         <v>22945317.92517911</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18396,7 +18538,7 @@
         <v>22947539.92517911</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18429,7 +18571,7 @@
         <v>22078958.18217911</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18759,7 +18901,7 @@
         <v>20449656.61917911</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18792,7 +18934,7 @@
         <v>19074128.43087911</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18825,7 +18967,7 @@
         <v>20230886.09487911</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18858,7 +19000,7 @@
         <v>21692771.20487911</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18891,7 +19033,7 @@
         <v>20451255.91687911</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18924,7 +19066,7 @@
         <v>20611255.91687911</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18990,7 +19132,7 @@
         <v>19558429.40187911</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19023,7 +19165,7 @@
         <v>18240632.25287911</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19122,7 +19264,7 @@
         <v>16931310.86687911</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19331,6 +19473,6 @@
       <c r="M543" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest AMO.xlsx
+++ b/BackTest/2020-01-26 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,7 +1804,7 @@
         <v>18799801.44989999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>19549722.51989999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>18181070.79589999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>18261774.44289999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>17020259.1549</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>18075307.6699</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>19393104.8189</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>18117686.4819</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>18969316.69989999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>17605792.42189999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>18626937.88789999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -12133,14 +12133,10 @@
         <v>3240409.085499989</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J356" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
@@ -12170,4729 +12166,3859 @@
         <v>4609060.809499989</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F358" t="n">
+        <v>944863.605</v>
+      </c>
+      <c r="G358" t="n">
+        <v>4609060.809499989</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1470360.872</v>
+      </c>
+      <c r="G359" t="n">
+        <v>3138699.937499989</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
         <v>0.2521</v>
       </c>
-      <c r="J357" t="n">
+      <c r="C360" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F360" t="n">
+        <v>1402554.773</v>
+      </c>
+      <c r="G360" t="n">
+        <v>1736145.164499989</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
         <v>0.2523</v>
       </c>
-      <c r="K357" t="inlineStr">
+      <c r="C361" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F361" t="n">
+        <v>877057.505</v>
+      </c>
+      <c r="G361" t="n">
+        <v>2613202.669499989</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F362" t="n">
+        <v>843154.456</v>
+      </c>
+      <c r="G362" t="n">
+        <v>3456357.125499989</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F363" t="n">
+        <v>1529691.209</v>
+      </c>
+      <c r="G363" t="n">
+        <v>1926665.916499989</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F364" t="n">
+        <v>1201358.476</v>
+      </c>
+      <c r="G364" t="n">
+        <v>725307.4404999889</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F365" t="n">
+        <v>1394079.011</v>
+      </c>
+      <c r="G365" t="n">
+        <v>725307.4404999889</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F366" t="n">
+        <v>809251.406</v>
+      </c>
+      <c r="G366" t="n">
+        <v>1534558.846499989</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F367" t="n">
+        <v>980988.654</v>
+      </c>
+      <c r="G367" t="n">
+        <v>553570.1924999888</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F368" t="n">
+        <v>1427982.06</v>
+      </c>
+      <c r="G368" t="n">
+        <v>1981552.252499989</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F369" t="n">
+        <v>1139806.139</v>
+      </c>
+      <c r="G369" t="n">
+        <v>1981552.252499989</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F370" t="n">
+        <v>2222</v>
+      </c>
+      <c r="G370" t="n">
+        <v>1983774.252499989</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F371" t="n">
+        <v>1300845.624</v>
+      </c>
+      <c r="G371" t="n">
+        <v>682928.6284999887</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F372" t="n">
+        <v>1216088.001</v>
+      </c>
+      <c r="G372" t="n">
+        <v>682928.6284999887</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F373" t="n">
+        <v>919436.317</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-236507.6885000113</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F374" t="n">
+        <v>894009.03</v>
+      </c>
+      <c r="G374" t="n">
+        <v>657501.3414999887</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="F375" t="n">
+        <v>2943.6491</v>
+      </c>
+      <c r="G375" t="n">
+        <v>660444.9905999887</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F376" t="n">
+        <v>1360175.961</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-699730.9704000112</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F377" t="n">
+        <v>1436457.823</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-699730.9704000112</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F378" t="n">
+        <v>1097427.327</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-1797158.297400011</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F379" t="n">
+        <v>716018.02</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-2513176.317400011</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F380" t="n">
+        <v>1080475.803</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-3593652.120400012</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F381" t="n">
+        <v>902484.7929999999</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-2691167.327400011</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F382" t="n">
+        <v>707542.258</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-1983625.069400012</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F383" t="n">
+        <v>927912.08</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-2911537.149400012</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F384" t="n">
+        <v>1258466.813</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-4170003.962400012</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F385" t="n">
+        <v>783824.1189999999</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-3386179.843400012</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F386" t="n">
+        <v>1004193.941</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-2381985.902400012</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F387" t="n">
+        <v>1292369.862</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-3674355.764400012</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F388" t="n">
+        <v>1148281.902</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-3674355.764400012</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F389" t="n">
+        <v>1504263.922</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-2170091.842400012</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F390" t="n">
+        <v>1266942.575</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-3437034.417400012</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F391" t="n">
+        <v>1029621.228</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-4466655.645400012</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F392" t="n">
+        <v>1207612.238</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-5674267.883400012</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F393" t="n">
+        <v>1038096.991</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-4636170.892400011</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F394" t="n">
+        <v>1283894.1</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-5920064.992400011</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F395" t="n">
+        <v>1487312.397</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-4432752.595400011</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F396" t="n">
+        <v>1444933.585</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-5877686.180400011</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F397" t="n">
+        <v>699066.495</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-6576752.675400011</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F398" t="n">
+        <v>987242.416</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-6576752.675400011</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F399" t="n">
+        <v>1411030.535</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-7987783.210400011</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F400" t="n">
+        <v>1233039.525</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-7987783.210400011</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F401" t="n">
+        <v>1521215.446</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-6466567.764400011</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F402" t="n">
+        <v>834678.694</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-7301246.458400011</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F403" t="n">
+        <v>732969.545</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-6568276.913400011</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F404" t="n">
+        <v>1453409.347</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-8021686.260400011</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F405" t="n">
+        <v>792299.882</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-7229386.378400011</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F406" t="n">
+        <v>800775.644</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-8030162.022400011</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F407" t="n">
+        <v>741445.307</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-7288716.715400011</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F408" t="n">
+        <v>1105903.09</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-7288716.715400011</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F409" t="n">
+        <v>868581.743</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-6420134.972400011</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F410" t="n">
+        <v>1385603.248</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-7805738.220400011</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F411" t="n">
+        <v>1088951.565</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-8894689.785400011</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F412" t="n">
+        <v>1190660.714</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-7704029.071400011</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F413" t="n">
+        <v>1012669.704</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-6691359.367400011</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F414" t="n">
+        <v>1131330.377</v>
+      </c>
+      <c r="G414" t="n">
+        <v>-6691359.367400011</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
+      <c r="M414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F415" t="n">
+        <v>1478836.634</v>
+      </c>
+      <c r="G415" t="n">
+        <v>-8170196.001400011</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F416" t="n">
+        <v>970290.892</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-8170196.001400011</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F417" t="n">
+        <v>758396.8320000001</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-7411799.16940001</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F418" t="n">
+        <v>1351700.199</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-8763499.368400011</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F419" t="n">
+        <v>1249991.05</v>
+      </c>
+      <c r="G419" t="n">
+        <v>-7513508.318400011</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F420" t="n">
+        <v>1156757.664</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-8670265.982400011</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F421" t="n">
+        <v>1461885.11</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-7208380.872400011</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F422" t="n">
+        <v>1241515.288</v>
+      </c>
+      <c r="G422" t="n">
+        <v>-8449896.160400011</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F423" t="n">
+        <v>1055048.515</v>
+      </c>
+      <c r="G423" t="n">
+        <v>-7394847.645400011</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="n">
+        <v>1</v>
+      </c>
+      <c r="M423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F424" t="n">
+        <v>1317797.149</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-6077050.496400011</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="n">
+        <v>1</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F425" t="n">
+        <v>1275418.337</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-4801632.15940001</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="n">
+        <v>1</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F426" t="n">
+        <v>851630.218</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-5653262.377400011</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="n">
+        <v>1</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="F427" t="n">
+        <v>2222</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-5651040.377400011</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="n">
+        <v>1</v>
+      </c>
+      <c r="M427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F428" t="n">
+        <v>817727.169</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-6468767.546400011</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F429" t="n">
+        <v>961815.129</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-7430582.67540001</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="n">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="F430" t="n">
+        <v>2222</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-7428360.67540001</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F431" t="n">
+        <v>1046572.753</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-8474933.42840001</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F432" t="n">
+        <v>1512739.684</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-8474933.42840001</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F433" t="n">
+        <v>1182184.951</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-9657118.379400009</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F434" t="n">
+        <v>1224563.763</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-10881682.14240001</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F435" t="n">
+        <v>1021145.466</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-11902827.60840001</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F436" t="n">
+        <v>1343224.436</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-13246052.04440001</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F437" t="n">
+        <v>1173709.189</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-13246052.04440001</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F438" t="n">
+        <v>826202.931</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-12419849.11340001</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F439" t="n">
+        <v>1063524.278</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-13483373.39140001</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F440" t="n">
+        <v>860105.981</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-12623267.41040001</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F441" t="n">
+        <v>1657295.0188</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-14280562.42920001</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F442" t="n">
+        <v>690590.733</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-13589971.69620001</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F443" t="n">
+        <v>1309321.387</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-14899293.08320001</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F444" t="n">
+        <v>885533.268</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-14013759.81520001</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F445" t="n">
+        <v>910960.5550000001</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-14924720.37020001</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F446" t="n">
+        <v>766872.595</v>
+      </c>
+      <c r="G446" t="n">
+        <v>-14157847.77520001</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F447" t="n">
+        <v>724493.7830000001</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-13433353.99220001</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="F448" t="n">
+        <v>1122854.614</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-14556208.60620001</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F449" t="n">
+        <v>1377127.486</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-13179081.12020001</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E450" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F450" t="n">
+        <v>1114378.852</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-14293459.97220001</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F451" t="n">
+        <v>1495788.159</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-12797671.81320001</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F452" t="n">
+        <v>953339.367</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-13751011.18020001</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E453" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F453" t="n">
+        <v>1419506.298</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-12331504.88220001</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E454" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F454" t="n">
+        <v>1326272.912</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-13657777.79420001</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F455" t="n">
+        <v>995718.179</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-12662059.61520001</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="n">
+        <v>1</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E456" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F456" t="n">
+        <v>1165233.426</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-13827293.04120001</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F457" t="n">
+        <v>775348.357</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-14602641.39820001</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F458" t="n">
+        <v>938609.8419999999</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-14602641.39820001</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F459" t="n">
+        <v>1072000.04</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-13530641.35820001</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F460" t="n">
+        <v>749921.0699999999</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-14280562.42820001</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F461" t="n">
+        <v>1368651.724</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-12911910.70420001</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E462" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F462" t="n">
+        <v>944863.605</v>
+      </c>
+      <c r="G462" t="n">
+        <v>-11967047.09920001</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F463" t="n">
+        <v>1470360.872</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-11967047.09920001</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F464" t="n">
+        <v>1402554.773</v>
+      </c>
+      <c r="G464" t="n">
+        <v>-13369601.87220001</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="n">
+        <v>1</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F465" t="n">
+        <v>2222</v>
+      </c>
+      <c r="G465" t="n">
+        <v>-13367379.87220001</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="n">
+        <v>1</v>
+      </c>
+      <c r="M465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F466" t="n">
+        <v>877057.505</v>
+      </c>
+      <c r="G466" t="n">
+        <v>-14244437.37720001</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E467" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F467" t="n">
+        <v>843154.456</v>
+      </c>
+      <c r="G467" t="n">
+        <v>-14244437.37720001</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="n">
+        <v>1</v>
+      </c>
+      <c r="M467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F468" t="n">
+        <v>1529691.209</v>
+      </c>
+      <c r="G468" t="n">
+        <v>-15774128.58620002</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="n">
+        <v>1</v>
+      </c>
+      <c r="M468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F469" t="n">
+        <v>1199136.476</v>
+      </c>
+      <c r="G469" t="n">
+        <v>-14574992.11020002</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="n">
+        <v>1</v>
+      </c>
+      <c r="M469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E470" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F470" t="n">
+        <v>1394079.011</v>
+      </c>
+      <c r="G470" t="n">
+        <v>-15969071.12120002</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="n">
+        <v>1</v>
+      </c>
+      <c r="M470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F471" t="n">
+        <v>809251.406</v>
+      </c>
+      <c r="G471" t="n">
+        <v>-15159819.71520002</v>
+      </c>
+      <c r="H471" t="n">
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J471" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="n">
+        <v>1</v>
+      </c>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F472" t="n">
+        <v>978766.654</v>
+      </c>
+      <c r="G472" t="n">
+        <v>-16138586.36920002</v>
+      </c>
+      <c r="H472" t="n">
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J472" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K472" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="C473" t="n">
         <v>0.2524</v>
       </c>
-      <c r="C358" t="n">
+      <c r="D473" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E473" t="n">
         <v>0.2524</v>
       </c>
-      <c r="D358" t="n">
+      <c r="F473" t="n">
+        <v>1430204.06</v>
+      </c>
+      <c r="G473" t="n">
+        <v>-16138586.36920002</v>
+      </c>
+      <c r="H473" t="n">
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
         <v>0.2524</v>
       </c>
-      <c r="E358" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F358" t="n">
-        <v>944863.605</v>
-      </c>
-      <c r="G358" t="n">
-        <v>4609060.809499989</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J358" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C359" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D359" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E359" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F359" t="n">
-        <v>1470360.872</v>
-      </c>
-      <c r="G359" t="n">
-        <v>3138699.937499989</v>
-      </c>
-      <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J359" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="C360" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D360" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="E360" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F360" t="n">
-        <v>1402554.773</v>
-      </c>
-      <c r="G360" t="n">
-        <v>1736145.164499989</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J360" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C361" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D361" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E361" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F361" t="n">
-        <v>877057.505</v>
-      </c>
-      <c r="G361" t="n">
-        <v>2613202.669499989</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J361" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C362" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D362" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E362" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F362" t="n">
-        <v>843154.456</v>
-      </c>
-      <c r="G362" t="n">
-        <v>3456357.125499989</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J362" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C363" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D363" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E363" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F363" t="n">
-        <v>1529691.209</v>
-      </c>
-      <c r="G363" t="n">
-        <v>1926665.916499989</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
+      <c r="J473" t="n">
         <v>0.2525</v>
       </c>
-      <c r="C364" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D364" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E364" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F364" t="n">
-        <v>1201358.476</v>
-      </c>
-      <c r="G364" t="n">
-        <v>725307.4404999889</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J364" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K364" t="inlineStr">
+      <c r="K473" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="C365" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D365" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="E365" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F365" t="n">
-        <v>1394079.011</v>
-      </c>
-      <c r="G365" t="n">
-        <v>725307.4404999889</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C366" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D366" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E366" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F366" t="n">
-        <v>809251.406</v>
-      </c>
-      <c r="G366" t="n">
-        <v>1534558.846499989</v>
-      </c>
-      <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J366" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C367" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D367" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E367" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F367" t="n">
-        <v>980988.654</v>
-      </c>
-      <c r="G367" t="n">
-        <v>553570.1924999888</v>
-      </c>
-      <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J367" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C368" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D368" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E368" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F368" t="n">
-        <v>1427982.06</v>
-      </c>
-      <c r="G368" t="n">
-        <v>1981552.252499989</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C369" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D369" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E369" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F369" t="n">
-        <v>1139806.139</v>
-      </c>
-      <c r="G369" t="n">
-        <v>1981552.252499989</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C370" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D370" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E370" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F370" t="n">
-        <v>2222</v>
-      </c>
-      <c r="G370" t="n">
-        <v>1983774.252499989</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C371" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D371" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E371" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F371" t="n">
-        <v>1300845.624</v>
-      </c>
-      <c r="G371" t="n">
-        <v>682928.6284999887</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C372" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D372" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E372" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F372" t="n">
-        <v>1216088.001</v>
-      </c>
-      <c r="G372" t="n">
-        <v>682928.6284999887</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C373" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D373" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E373" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F373" t="n">
-        <v>919436.317</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-236507.6885000113</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C374" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D374" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E374" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F374" t="n">
-        <v>894009.03</v>
-      </c>
-      <c r="G374" t="n">
-        <v>657501.3414999887</v>
-      </c>
-      <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J374" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="C375" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="D375" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E375" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="F375" t="n">
-        <v>2943.6491</v>
-      </c>
-      <c r="G375" t="n">
-        <v>660444.9905999887</v>
-      </c>
-      <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J375" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C376" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D376" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E376" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F376" t="n">
-        <v>1360175.961</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-699730.9704000112</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C377" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D377" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E377" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F377" t="n">
-        <v>1436457.823</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-699730.9704000112</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C378" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D378" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E378" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F378" t="n">
-        <v>1097427.327</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-1797158.297400011</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C379" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D379" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E379" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F379" t="n">
-        <v>716018.02</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-2513176.317400011</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="C380" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D380" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="E380" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F380" t="n">
-        <v>1080475.803</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-3593652.120400012</v>
-      </c>
-      <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J380" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C381" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D381" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E381" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F381" t="n">
-        <v>902484.7929999999</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-2691167.327400011</v>
-      </c>
-      <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J381" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C382" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D382" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E382" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F382" t="n">
-        <v>707542.258</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-1983625.069400012</v>
-      </c>
-      <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J382" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C383" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D383" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E383" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F383" t="n">
-        <v>927912.08</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-2911537.149400012</v>
-      </c>
-      <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J383" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="C384" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D384" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="E384" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F384" t="n">
-        <v>1258466.813</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-4170003.962400012</v>
-      </c>
-      <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J384" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C385" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D385" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E385" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F385" t="n">
-        <v>783824.1189999999</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-3386179.843400012</v>
-      </c>
-      <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J385" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C386" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D386" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E386" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F386" t="n">
-        <v>1004193.941</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-2381985.902400012</v>
-      </c>
-      <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J386" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C387" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D387" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E387" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F387" t="n">
-        <v>1292369.862</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-3674355.764400012</v>
-      </c>
-      <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J387" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C388" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D388" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E388" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F388" t="n">
-        <v>1148281.902</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-3674355.764400012</v>
-      </c>
-      <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J388" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C389" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D389" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E389" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F389" t="n">
-        <v>1504263.922</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-2170091.842400012</v>
-      </c>
-      <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J389" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C390" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D390" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E390" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F390" t="n">
-        <v>1266942.575</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-3437034.417400012</v>
-      </c>
-      <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J390" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C391" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D391" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E391" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F391" t="n">
-        <v>1029621.228</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-4466655.645400012</v>
-      </c>
-      <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J391" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C392" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D392" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E392" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F392" t="n">
-        <v>1207612.238</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-5674267.883400012</v>
-      </c>
-      <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J392" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C393" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D393" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E393" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F393" t="n">
-        <v>1038096.991</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-4636170.892400011</v>
-      </c>
-      <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J393" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C394" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D394" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E394" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F394" t="n">
-        <v>1283894.1</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-5920064.992400011</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C395" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D395" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E395" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F395" t="n">
-        <v>1487312.397</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-4432752.595400011</v>
-      </c>
-      <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J395" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C396" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D396" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E396" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F396" t="n">
-        <v>1444933.585</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-5877686.180400011</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C397" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D397" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E397" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F397" t="n">
-        <v>699066.495</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-6576752.675400011</v>
-      </c>
-      <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J397" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C398" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D398" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E398" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F398" t="n">
-        <v>987242.416</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-6576752.675400011</v>
-      </c>
-      <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J398" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="C399" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D399" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="E399" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F399" t="n">
-        <v>1411030.535</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-7987783.210400011</v>
-      </c>
-      <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J399" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="C400" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D400" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="E400" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F400" t="n">
-        <v>1233039.525</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-7987783.210400011</v>
-      </c>
-      <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J400" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C401" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D401" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E401" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F401" t="n">
-        <v>1521215.446</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-6466567.764400011</v>
-      </c>
-      <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J401" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C402" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D402" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E402" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F402" t="n">
-        <v>834678.694</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-7301246.458400011</v>
-      </c>
-      <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J402" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C403" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D403" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E403" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F403" t="n">
-        <v>732969.545</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-6568276.913400011</v>
-      </c>
-      <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J403" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C404" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D404" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E404" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F404" t="n">
-        <v>1453409.347</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-8021686.260400011</v>
-      </c>
-      <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J404" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C405" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D405" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E405" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F405" t="n">
-        <v>792299.882</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-7229386.378400011</v>
-      </c>
-      <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J405" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="C406" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D406" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="E406" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F406" t="n">
-        <v>800775.644</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-8030162.022400011</v>
-      </c>
-      <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J406" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C407" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D407" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E407" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F407" t="n">
-        <v>741445.307</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-7288716.715400011</v>
-      </c>
-      <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J407" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C408" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D408" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E408" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F408" t="n">
-        <v>1105903.09</v>
-      </c>
-      <c r="G408" t="n">
-        <v>-7288716.715400011</v>
-      </c>
-      <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J408" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C409" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D409" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E409" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F409" t="n">
-        <v>868581.743</v>
-      </c>
-      <c r="G409" t="n">
-        <v>-6420134.972400011</v>
-      </c>
-      <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J409" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C410" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D410" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E410" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F410" t="n">
-        <v>1385603.248</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-7805738.220400011</v>
-      </c>
-      <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J410" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="C411" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D411" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="E411" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F411" t="n">
-        <v>1088951.565</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-8894689.785400011</v>
-      </c>
-      <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J411" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C412" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D412" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E412" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F412" t="n">
-        <v>1190660.714</v>
-      </c>
-      <c r="G412" t="n">
-        <v>-7704029.071400011</v>
-      </c>
-      <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J412" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C413" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D413" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E413" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F413" t="n">
-        <v>1012669.704</v>
-      </c>
-      <c r="G413" t="n">
-        <v>-6691359.367400011</v>
-      </c>
-      <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J413" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L413" t="n">
-        <v>1</v>
-      </c>
-      <c r="M413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C414" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D414" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E414" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F414" t="n">
-        <v>1131330.377</v>
-      </c>
-      <c r="G414" t="n">
-        <v>-6691359.367400011</v>
-      </c>
-      <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J414" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L414" t="n">
-        <v>1</v>
-      </c>
-      <c r="M414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C415" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D415" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E415" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F415" t="n">
-        <v>1478836.634</v>
-      </c>
-      <c r="G415" t="n">
-        <v>-8170196.001400011</v>
-      </c>
-      <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J415" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C416" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D416" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E416" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F416" t="n">
-        <v>970290.892</v>
-      </c>
-      <c r="G416" t="n">
-        <v>-8170196.001400011</v>
-      </c>
-      <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J416" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C417" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D417" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E417" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F417" t="n">
-        <v>758396.8320000001</v>
-      </c>
-      <c r="G417" t="n">
-        <v>-7411799.16940001</v>
-      </c>
-      <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J417" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L417" t="n">
-        <v>1</v>
-      </c>
-      <c r="M417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="C418" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D418" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="E418" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F418" t="n">
-        <v>1351700.199</v>
-      </c>
-      <c r="G418" t="n">
-        <v>-8763499.368400011</v>
-      </c>
-      <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J418" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L418" t="n">
-        <v>1</v>
-      </c>
-      <c r="M418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C419" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D419" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E419" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F419" t="n">
-        <v>1249991.05</v>
-      </c>
-      <c r="G419" t="n">
-        <v>-7513508.318400011</v>
-      </c>
-      <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J419" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L419" t="n">
-        <v>1</v>
-      </c>
-      <c r="M419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="C420" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D420" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="E420" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F420" t="n">
-        <v>1156757.664</v>
-      </c>
-      <c r="G420" t="n">
-        <v>-8670265.982400011</v>
-      </c>
-      <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J420" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L420" t="n">
-        <v>1</v>
-      </c>
-      <c r="M420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C421" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D421" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E421" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F421" t="n">
-        <v>1461885.11</v>
-      </c>
-      <c r="G421" t="n">
-        <v>-7208380.872400011</v>
-      </c>
-      <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J421" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L421" t="n">
-        <v>1</v>
-      </c>
-      <c r="M421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C422" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D422" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E422" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F422" t="n">
-        <v>1241515.288</v>
-      </c>
-      <c r="G422" t="n">
-        <v>-8449896.160400011</v>
-      </c>
-      <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J422" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L422" t="n">
-        <v>1</v>
-      </c>
-      <c r="M422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C423" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D423" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E423" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F423" t="n">
-        <v>1055048.515</v>
-      </c>
-      <c r="G423" t="n">
-        <v>-7394847.645400011</v>
-      </c>
-      <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J423" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L423" t="n">
-        <v>1</v>
-      </c>
-      <c r="M423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C424" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D424" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E424" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F424" t="n">
-        <v>1317797.149</v>
-      </c>
-      <c r="G424" t="n">
-        <v>-6077050.496400011</v>
-      </c>
-      <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J424" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L424" t="n">
-        <v>1</v>
-      </c>
-      <c r="M424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C425" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D425" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E425" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F425" t="n">
-        <v>1275418.337</v>
-      </c>
-      <c r="G425" t="n">
-        <v>-4801632.15940001</v>
-      </c>
-      <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J425" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C426" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D426" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E426" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F426" t="n">
-        <v>851630.218</v>
-      </c>
-      <c r="G426" t="n">
-        <v>-5653262.377400011</v>
-      </c>
-      <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J426" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L426" t="n">
-        <v>1</v>
-      </c>
-      <c r="M426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="C427" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="D427" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E427" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="F427" t="n">
-        <v>2222</v>
-      </c>
-      <c r="G427" t="n">
-        <v>-5651040.377400011</v>
-      </c>
-      <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J427" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L427" t="n">
-        <v>1</v>
-      </c>
-      <c r="M427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C428" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D428" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E428" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F428" t="n">
-        <v>817727.169</v>
-      </c>
-      <c r="G428" t="n">
-        <v>-6468767.546400011</v>
-      </c>
-      <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L428" t="n">
-        <v>1</v>
-      </c>
-      <c r="M428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C429" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D429" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E429" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F429" t="n">
-        <v>961815.129</v>
-      </c>
-      <c r="G429" t="n">
-        <v>-7430582.67540001</v>
-      </c>
-      <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L429" t="n">
-        <v>1</v>
-      </c>
-      <c r="M429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="C430" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="D430" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E430" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="F430" t="n">
-        <v>2222</v>
-      </c>
-      <c r="G430" t="n">
-        <v>-7428360.67540001</v>
-      </c>
-      <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J430" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L430" t="n">
-        <v>1</v>
-      </c>
-      <c r="M430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C431" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D431" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E431" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F431" t="n">
-        <v>1046572.753</v>
-      </c>
-      <c r="G431" t="n">
-        <v>-8474933.42840001</v>
-      </c>
-      <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
-      <c r="M431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C432" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D432" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E432" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F432" t="n">
-        <v>1512739.684</v>
-      </c>
-      <c r="G432" t="n">
-        <v>-8474933.42840001</v>
-      </c>
-      <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L432" t="n">
-        <v>1</v>
-      </c>
-      <c r="M432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C433" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D433" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E433" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F433" t="n">
-        <v>1182184.951</v>
-      </c>
-      <c r="G433" t="n">
-        <v>-9657118.379400009</v>
-      </c>
-      <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
-      <c r="M433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C434" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D434" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E434" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F434" t="n">
-        <v>1224563.763</v>
-      </c>
-      <c r="G434" t="n">
-        <v>-10881682.14240001</v>
-      </c>
-      <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J434" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C435" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D435" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E435" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F435" t="n">
-        <v>1021145.466</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-11902827.60840001</v>
-      </c>
-      <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J435" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C436" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D436" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E436" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F436" t="n">
-        <v>1343224.436</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-13246052.04440001</v>
-      </c>
-      <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J436" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C437" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D437" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E437" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F437" t="n">
-        <v>1173709.189</v>
-      </c>
-      <c r="G437" t="n">
-        <v>-13246052.04440001</v>
-      </c>
-      <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J437" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C438" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D438" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E438" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F438" t="n">
-        <v>826202.931</v>
-      </c>
-      <c r="G438" t="n">
-        <v>-12419849.11340001</v>
-      </c>
-      <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J438" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C439" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D439" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E439" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F439" t="n">
-        <v>1063524.278</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-13483373.39140001</v>
-      </c>
-      <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J439" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C440" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D440" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E440" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F440" t="n">
-        <v>860105.981</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-12623267.41040001</v>
-      </c>
-      <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J440" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C441" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D441" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E441" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F441" t="n">
-        <v>1657295.0188</v>
-      </c>
-      <c r="G441" t="n">
-        <v>-14280562.42920001</v>
-      </c>
-      <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J441" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
-      <c r="M441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C442" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D442" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E442" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F442" t="n">
-        <v>690590.733</v>
-      </c>
-      <c r="G442" t="n">
-        <v>-13589971.69620001</v>
-      </c>
-      <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J442" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="C443" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D443" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="E443" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F443" t="n">
-        <v>1309321.387</v>
-      </c>
-      <c r="G443" t="n">
-        <v>-14899293.08320001</v>
-      </c>
-      <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J443" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L443" t="n">
-        <v>1</v>
-      </c>
-      <c r="M443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C444" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D444" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E444" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F444" t="n">
-        <v>885533.268</v>
-      </c>
-      <c r="G444" t="n">
-        <v>-14013759.81520001</v>
-      </c>
-      <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J444" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
-      <c r="M444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C445" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D445" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E445" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F445" t="n">
-        <v>910960.5550000001</v>
-      </c>
-      <c r="G445" t="n">
-        <v>-14924720.37020001</v>
-      </c>
-      <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J445" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
-      <c r="M445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C446" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D446" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E446" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F446" t="n">
-        <v>766872.595</v>
-      </c>
-      <c r="G446" t="n">
-        <v>-14157847.77520001</v>
-      </c>
-      <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J446" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L446" t="n">
-        <v>1</v>
-      </c>
-      <c r="M446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C447" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D447" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E447" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F447" t="n">
-        <v>724493.7830000001</v>
-      </c>
-      <c r="G447" t="n">
-        <v>-13433353.99220001</v>
-      </c>
-      <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J447" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
-      <c r="M447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="C448" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="D448" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="E448" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="F448" t="n">
-        <v>1122854.614</v>
-      </c>
-      <c r="G448" t="n">
-        <v>-14556208.60620001</v>
-      </c>
-      <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J448" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C449" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D449" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E449" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F449" t="n">
-        <v>1377127.486</v>
-      </c>
-      <c r="G449" t="n">
-        <v>-13179081.12020001</v>
-      </c>
-      <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J449" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C450" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D450" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E450" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F450" t="n">
-        <v>1114378.852</v>
-      </c>
-      <c r="G450" t="n">
-        <v>-14293459.97220001</v>
-      </c>
-      <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J450" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L450" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C451" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D451" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E451" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F451" t="n">
-        <v>1495788.159</v>
-      </c>
-      <c r="G451" t="n">
-        <v>-12797671.81320001</v>
-      </c>
-      <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J451" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C452" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D452" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E452" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F452" t="n">
-        <v>953339.367</v>
-      </c>
-      <c r="G452" t="n">
-        <v>-13751011.18020001</v>
-      </c>
-      <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J452" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L452" t="n">
-        <v>1</v>
-      </c>
-      <c r="M452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C453" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D453" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E453" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F453" t="n">
-        <v>1419506.298</v>
-      </c>
-      <c r="G453" t="n">
-        <v>-12331504.88220001</v>
-      </c>
-      <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J453" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C454" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D454" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E454" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F454" t="n">
-        <v>1326272.912</v>
-      </c>
-      <c r="G454" t="n">
-        <v>-13657777.79420001</v>
-      </c>
-      <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J454" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C455" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D455" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E455" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F455" t="n">
-        <v>995718.179</v>
-      </c>
-      <c r="G455" t="n">
-        <v>-12662059.61520001</v>
-      </c>
-      <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J455" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L455" t="n">
-        <v>1</v>
-      </c>
-      <c r="M455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C456" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D456" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E456" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F456" t="n">
-        <v>1165233.426</v>
-      </c>
-      <c r="G456" t="n">
-        <v>-13827293.04120001</v>
-      </c>
-      <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J456" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C457" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D457" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E457" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F457" t="n">
-        <v>775348.357</v>
-      </c>
-      <c r="G457" t="n">
-        <v>-14602641.39820001</v>
-      </c>
-      <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J457" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="C458" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D458" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E458" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F458" t="n">
-        <v>938609.8419999999</v>
-      </c>
-      <c r="G458" t="n">
-        <v>-14602641.39820001</v>
-      </c>
-      <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J458" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C459" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D459" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E459" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F459" t="n">
-        <v>1072000.04</v>
-      </c>
-      <c r="G459" t="n">
-        <v>-13530641.35820001</v>
-      </c>
-      <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J459" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C460" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D460" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E460" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F460" t="n">
-        <v>749921.0699999999</v>
-      </c>
-      <c r="G460" t="n">
-        <v>-14280562.42820001</v>
-      </c>
-      <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J460" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C461" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D461" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E461" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F461" t="n">
-        <v>1368651.724</v>
-      </c>
-      <c r="G461" t="n">
-        <v>-12911910.70420001</v>
-      </c>
-      <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J461" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C462" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D462" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E462" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F462" t="n">
-        <v>944863.605</v>
-      </c>
-      <c r="G462" t="n">
-        <v>-11967047.09920001</v>
-      </c>
-      <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J462" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C463" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D463" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E463" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F463" t="n">
-        <v>1470360.872</v>
-      </c>
-      <c r="G463" t="n">
-        <v>-11967047.09920001</v>
-      </c>
-      <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J463" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C464" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D464" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E464" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F464" t="n">
-        <v>1402554.773</v>
-      </c>
-      <c r="G464" t="n">
-        <v>-13369601.87220001</v>
-      </c>
-      <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J464" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
-      <c r="M464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C465" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D465" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E465" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F465" t="n">
-        <v>2222</v>
-      </c>
-      <c r="G465" t="n">
-        <v>-13367379.87220001</v>
-      </c>
-      <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J465" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L465" t="n">
-        <v>1</v>
-      </c>
-      <c r="M465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C466" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D466" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E466" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F466" t="n">
-        <v>877057.505</v>
-      </c>
-      <c r="G466" t="n">
-        <v>-14244437.37720001</v>
-      </c>
-      <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J466" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L466" t="n">
-        <v>1</v>
-      </c>
-      <c r="M466" t="inlineStr"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C467" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D467" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E467" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F467" t="n">
-        <v>843154.456</v>
-      </c>
-      <c r="G467" t="n">
-        <v>-14244437.37720001</v>
-      </c>
-      <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J467" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L467" t="n">
-        <v>1</v>
-      </c>
-      <c r="M467" t="inlineStr"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C468" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D468" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E468" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F468" t="n">
-        <v>1529691.209</v>
-      </c>
-      <c r="G468" t="n">
-        <v>-15774128.58620002</v>
-      </c>
-      <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J468" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L468" t="n">
-        <v>1</v>
-      </c>
-      <c r="M468" t="inlineStr"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C469" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D469" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E469" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F469" t="n">
-        <v>1199136.476</v>
-      </c>
-      <c r="G469" t="n">
-        <v>-14574992.11020002</v>
-      </c>
-      <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J469" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L469" t="n">
-        <v>1</v>
-      </c>
-      <c r="M469" t="inlineStr"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C470" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D470" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E470" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F470" t="n">
-        <v>1394079.011</v>
-      </c>
-      <c r="G470" t="n">
-        <v>-15969071.12120002</v>
-      </c>
-      <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J470" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L470" t="n">
-        <v>1</v>
-      </c>
-      <c r="M470" t="inlineStr"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C471" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D471" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E471" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F471" t="n">
-        <v>809251.406</v>
-      </c>
-      <c r="G471" t="n">
-        <v>-15159819.71520002</v>
-      </c>
-      <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J471" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L471" t="n">
-        <v>1</v>
-      </c>
-      <c r="M471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C472" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D472" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E472" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F472" t="n">
-        <v>978766.654</v>
-      </c>
-      <c r="G472" t="n">
-        <v>-16138586.36920002</v>
-      </c>
-      <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J472" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L472" t="n">
-        <v>1</v>
-      </c>
-      <c r="M472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="C473" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D473" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E473" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F473" t="n">
-        <v>1430204.06</v>
-      </c>
-      <c r="G473" t="n">
-        <v>-16138586.36920002</v>
-      </c>
-      <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J473" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16927,7 +16053,7 @@
         <v>0.2524</v>
       </c>
       <c r="J474" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16968,7 +16094,7 @@
         <v>0.2524</v>
       </c>
       <c r="J475" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17009,7 +16135,7 @@
         <v>0.2526</v>
       </c>
       <c r="J476" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17050,7 +16176,7 @@
         <v>0.2527</v>
       </c>
       <c r="J477" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17091,7 +16217,7 @@
         <v>0.2528</v>
       </c>
       <c r="J478" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17132,7 +16258,7 @@
         <v>0.2526</v>
       </c>
       <c r="J479" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17173,7 +16299,7 @@
         <v>0.2528</v>
       </c>
       <c r="J480" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17214,7 +16340,7 @@
         <v>0.2528</v>
       </c>
       <c r="J481" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17255,7 +16381,7 @@
         <v>0.2528</v>
       </c>
       <c r="J482" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17296,7 +16422,7 @@
         <v>0.2525</v>
       </c>
       <c r="J483" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17337,7 +16463,7 @@
         <v>0.2524</v>
       </c>
       <c r="J484" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17378,7 +16504,7 @@
         <v>0.2527</v>
       </c>
       <c r="J485" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17417,7 +16543,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17456,7 +16582,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17495,7 +16621,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17534,7 +16660,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17573,7 +16699,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17612,7 +16738,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17651,7 +16777,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17690,7 +16816,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17729,7 +16855,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17768,7 +16894,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17807,7 +16933,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17846,7 +16972,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17885,7 +17011,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17924,7 +17050,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17963,7 +17089,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18002,7 +17128,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18041,7 +17167,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18080,7 +17206,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -18119,7 +17245,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -18158,7 +17284,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -18197,7 +17323,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -18236,7 +17362,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -18275,7 +17401,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -18314,7 +17440,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -18353,7 +17479,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -18392,7 +17518,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -18431,7 +17557,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -18466,19 +17592,19 @@
         <v>24051221.01517911</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>0.2523</v>
+        <v>0.2525</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L513" t="n">
-        <v>1.003719778042014</v>
+        <v>1</v>
       </c>
       <c r="M513" t="inlineStr"/>
     </row>
@@ -18505,11 +17631,17 @@
         <v>22945317.92517911</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18538,11 +17670,17 @@
         <v>22947539.92517911</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18574,8 +17712,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18607,8 +17751,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18640,8 +17790,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18673,8 +17829,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18706,8 +17868,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18739,8 +17907,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18772,8 +17946,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18805,8 +17985,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18838,8 +18024,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18871,8 +18063,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18901,11 +18099,17 @@
         <v>20449656.61917911</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18934,11 +18138,17 @@
         <v>19074128.43087911</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18967,11 +18177,17 @@
         <v>20230886.09487911</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19000,11 +18216,17 @@
         <v>21692771.20487911</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19033,11 +18255,17 @@
         <v>20451255.91687911</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19066,11 +18294,17 @@
         <v>20611255.91687911</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19102,8 +18336,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19132,11 +18372,17 @@
         <v>19558429.40187911</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19165,11 +18411,17 @@
         <v>18240632.25287911</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19201,8 +18453,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19234,8 +18492,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19264,11 +18528,17 @@
         <v>16931310.86687911</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19300,8 +18570,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19333,8 +18609,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19366,8 +18648,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19399,8 +18687,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19432,8 +18726,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19465,14 +18765,20 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
       <c r="M543" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest AMO.xlsx
+++ b/BackTest/2020-01-26 BackTest AMO.xlsx
@@ -1804,7 +1804,7 @@
         <v>18799801.44989999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>19549722.51989999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>18181070.79589999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>23338020.50389999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>22905756.6219</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>21520153.3739</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>20431201.80889999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>17643043.78789999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>18613334.67989999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>17854937.8479</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>19206638.0469</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>17956646.9969</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>16799889.3329</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>18261774.44289999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>16889774.40189999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>17605792.42189999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>18220101.29389999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>14762024.97229999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -14839,10 +14839,14 @@
         <v>-12419849.11340001</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
@@ -14875,8 +14879,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +14915,19 @@
         <v>-12623267.41040001</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +14956,19 @@
         <v>-14280562.42920001</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +14997,19 @@
         <v>-13589971.69620001</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15038,19 @@
         <v>-14899293.08320001</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15079,19 @@
         <v>-14013759.81520001</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15120,19 @@
         <v>-14924720.37020001</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15161,19 @@
         <v>-14157847.77520001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15202,19 @@
         <v>-13433353.99220001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15243,19 @@
         <v>-14556208.60620001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15284,19 @@
         <v>-13179081.12020001</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +15325,19 @@
         <v>-14293459.97220001</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +15366,19 @@
         <v>-12797671.81320001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +15407,19 @@
         <v>-13751011.18020001</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15334,11 +15448,19 @@
         <v>-12331504.88220001</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15489,19 @@
         <v>-13657777.79420001</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15403,8 +15533,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15569,19 @@
         <v>-13827293.04120001</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15610,19 @@
         <v>-14602641.39820001</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,11 +15651,19 @@
         <v>-14602641.39820001</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15532,11 +15692,19 @@
         <v>-13530641.35820001</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +15733,19 @@
         <v>-14280562.42820001</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +15774,19 @@
         <v>-12911910.70420001</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +15815,19 @@
         <v>-11967047.09920001</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +15856,19 @@
         <v>-11967047.09920001</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +15897,19 @@
         <v>-13369601.87220001</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +15938,19 @@
         <v>-13367379.87220001</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J465" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +15979,19 @@
         <v>-14244437.37720001</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +16020,19 @@
         <v>-14244437.37720001</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J467" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +16061,19 @@
         <v>-15774128.58620002</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J468" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +16102,19 @@
         <v>-14574992.11020002</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +16143,19 @@
         <v>-15969071.12120002</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="J470" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15934,9 +16190,13 @@
         <v>0.2525</v>
       </c>
       <c r="J471" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K471" t="inlineStr"/>
+        <v>0.2522</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15971,11 +16231,11 @@
         <v>0.2526</v>
       </c>
       <c r="J472" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L472" t="n">
@@ -16012,11 +16272,11 @@
         <v>0.2524</v>
       </c>
       <c r="J473" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L473" t="n">
@@ -16053,7 +16313,7 @@
         <v>0.2524</v>
       </c>
       <c r="J474" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16094,7 +16354,7 @@
         <v>0.2524</v>
       </c>
       <c r="J475" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16135,7 +16395,7 @@
         <v>0.2526</v>
       </c>
       <c r="J476" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16176,7 +16436,7 @@
         <v>0.2527</v>
       </c>
       <c r="J477" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16217,7 +16477,7 @@
         <v>0.2528</v>
       </c>
       <c r="J478" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16258,7 +16518,7 @@
         <v>0.2526</v>
       </c>
       <c r="J479" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16299,7 +16559,7 @@
         <v>0.2528</v>
       </c>
       <c r="J480" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16340,7 +16600,7 @@
         <v>0.2528</v>
       </c>
       <c r="J481" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16381,7 +16641,7 @@
         <v>0.2528</v>
       </c>
       <c r="J482" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16422,7 +16682,7 @@
         <v>0.2525</v>
       </c>
       <c r="J483" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16463,7 +16723,7 @@
         <v>0.2524</v>
       </c>
       <c r="J484" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16504,7 +16764,7 @@
         <v>0.2527</v>
       </c>
       <c r="J485" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16543,7 +16803,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16578,19 +16838,19 @@
         <v>31270165.77829998</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>0.2525</v>
+        <v>0.2522</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L487" t="n">
-        <v>1</v>
+        <v>1.006895321173672</v>
       </c>
       <c r="M487" t="inlineStr"/>
     </row>
@@ -16617,17 +16877,11 @@
         <v>30486341.65929998</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16659,14 +16913,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16698,14 +16946,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16737,14 +16979,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16776,14 +17012,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16815,14 +17045,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16854,14 +17078,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16893,14 +17111,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16932,14 +17144,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16971,14 +17177,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17010,14 +17210,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17049,14 +17243,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17088,14 +17276,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17127,14 +17309,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17166,14 +17342,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17205,14 +17375,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17244,14 +17408,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17283,14 +17441,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17322,14 +17474,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17361,14 +17507,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17400,14 +17540,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17439,14 +17573,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17478,14 +17606,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17517,14 +17639,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17556,14 +17672,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17595,14 +17705,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17634,14 +17738,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17673,14 +17771,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17712,14 +17804,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17751,14 +17837,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17790,14 +17870,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17829,14 +17903,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17868,14 +17936,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17907,14 +17969,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17946,14 +18002,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17985,14 +18035,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18024,14 +18068,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18063,14 +18101,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18102,14 +18134,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18141,14 +18167,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18180,14 +18200,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18219,14 +18233,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18258,14 +18266,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18297,14 +18299,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18336,14 +18332,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18375,14 +18365,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18414,14 +18398,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18453,14 +18431,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18492,14 +18464,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18531,14 +18497,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18570,14 +18530,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18609,14 +18563,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18648,14 +18596,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18687,14 +18629,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18726,14 +18662,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18765,14 +18695,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
